--- a/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
+++ b/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="103">
   <si>
     <t>土地坐落</t>
   </si>
@@ -203,6 +203,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>久津實業公司</t>
   </si>
   <si>
@@ -210,6 +219,9 @@
   </si>
   <si>
     <t>博仁建設</t>
+  </si>
+  <si>
+    <t>2011-12-26</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1401,13 +1413,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1426,13 +1438,22 @@
       <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1449,13 +1470,22 @@
       <c r="G2" s="2">
         <v>534930</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1472,13 +1502,22 @@
       <c r="G3" s="2">
         <v>53760</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1494,6 +1533,15 @@
       </c>
       <c r="G4" s="2">
         <v>250000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -1511,25 +1559,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1537,13 +1585,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>40191.2</v>
@@ -1563,13 +1611,13 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2">
         <v>551258</v>
@@ -1599,22 +1647,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1622,14 +1670,14 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1639,22 +1687,22 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1672,13 +1720,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1686,10 +1734,10 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>53</v>
@@ -1700,10 +1748,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>53</v>
@@ -1714,10 +1762,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>53</v>
@@ -1728,10 +1776,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>53</v>
@@ -1742,10 +1790,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>53</v>
@@ -1756,10 +1804,10 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>53</v>
@@ -1770,10 +1818,10 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>53</v>
@@ -1784,10 +1832,10 @@
         <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -1798,10 +1846,10 @@
         <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>

--- a/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
+++ b/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="105">
   <si>
     <t>土地坐落</t>
   </si>
@@ -203,6 +203,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -219,6 +222,9 @@
   </si>
   <si>
     <t>博仁建設</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-12-26</t>
@@ -1413,13 +1419,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1447,13 +1453,16 @@
       <c r="J1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1471,21 +1480,24 @@
         <v>534930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2">
+        <v>68</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2">
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1503,21 +1515,24 @@
         <v>53760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2">
+        <v>68</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2">
         <v>665</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1535,12 +1550,15 @@
         <v>250000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="2">
+        <v>68</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2">
         <v>665</v>
       </c>
     </row>
@@ -1559,25 +1577,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1585,13 +1603,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>40191.2</v>
@@ -1611,13 +1629,13 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>551258</v>
@@ -1647,22 +1665,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1670,14 +1688,14 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1687,22 +1705,22 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1720,13 +1738,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1734,10 +1752,10 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>53</v>
@@ -1748,10 +1766,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>53</v>
@@ -1762,10 +1780,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>53</v>
@@ -1776,10 +1794,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>53</v>
@@ -1790,10 +1808,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>53</v>
@@ -1804,10 +1822,10 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>53</v>
@@ -1818,10 +1836,10 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>53</v>
@@ -1832,10 +1850,10 @@
         <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -1846,10 +1864,10 @@
         <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>

--- a/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
+++ b/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="110">
   <si>
     <t>土地坐落</t>
   </si>
@@ -206,6 +206,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -215,6 +218,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>久津實業公司</t>
   </si>
   <si>
@@ -227,7 +236,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-12-26</t>
+  </si>
+  <si>
+    <t>tmp43441</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1419,13 +1434,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1456,13 +1471,22 @@
       <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1480,24 +1504,33 @@
         <v>534930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2">
         <v>665</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1515,24 +1548,33 @@
         <v>53760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="2">
+        <v>72</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2">
         <v>665</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1550,16 +1592,25 @@
         <v>250000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="2">
+        <v>72</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2">
         <v>665</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1577,25 +1628,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1603,13 +1654,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2">
         <v>40191.2</v>
@@ -1629,13 +1680,13 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2">
         <v>551258</v>
@@ -1665,22 +1716,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1688,14 +1739,14 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1705,22 +1756,22 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1738,13 +1789,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1752,10 +1803,10 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>53</v>
@@ -1766,10 +1817,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>53</v>
@@ -1780,10 +1831,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>53</v>
@@ -1794,10 +1845,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>53</v>
@@ -1808,10 +1859,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>53</v>
@@ -1822,10 +1873,10 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>53</v>
@@ -1836,10 +1887,10 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>53</v>
@@ -1850,10 +1901,10 @@
         <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -1864,10 +1915,10 @@
         <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>

--- a/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
+++ b/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
@@ -21,9 +21,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="110">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="115">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段一小段04850000地號</t>
+  </si>
+  <si>
+    <t>10000分之1013</t>
+  </si>
+  <si>
+    <t>黃昭順</t>
+  </si>
+  <si>
+    <t>94年01月05日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-26</t>
+  </si>
+  <si>
+    <t>tmp43441</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,28 +116,7 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區大安段一小段 0485-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 1013</t>
-  </si>
-  <si>
-    <t>黃昭順</t>
-  </si>
-  <si>
-    <t>94年01月 05日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段一小段 02919-000 建號</t>
+    <t>臺北市大安區大安段一小段02919000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -101,13 +152,13 @@
     <t>外</t>
   </si>
   <si>
-    <t>台北富邦商業銀行城中分 行</t>
+    <t>台北富邦商業銀行城中分行</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>臺灣銀行信託部（信託專 戶）</t>
+    <t>臺灣銀行信託部（信託專戶）</t>
   </si>
   <si>
     <t>第一商業銀行左營分行</t>
@@ -116,7 +167,7 @@
     <t>陽信商業銀行立文分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司高 雄新庄</t>
+    <t>中華郵政股份有限公司高雄新庄</t>
   </si>
   <si>
     <t>大眾商業銀行大昌分行</t>
@@ -140,22 +191,22 @@
     <t>臺灣銀行城中分行</t>
   </si>
   <si>
-    <t>花旗(台灣)商業銀行臺北 分行</t>
-  </si>
-  <si>
-    <t>花旗（台灣)商業銀行臺北 分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司新 庄仔郵局</t>
+    <t>花旗(台灣)商業銀行臺北分行</t>
+  </si>
+  <si>
+    <t>花旗（台灣)商業銀行臺北分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司新庄仔郵局</t>
   </si>
   <si>
     <t>臺灣銀行龍山分行</t>
   </si>
   <si>
-    <t>兆豐國際商業銀行新竹分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司郵 政儲金匯</t>
+    <t>兆豐國際商業銀行新竹分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司郵政儲金匯</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -185,12 +236,6 @@
     <t>王崇儀</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -203,27 +248,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>久津實業公司</t>
   </si>
   <si>
@@ -236,15 +260,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-12-26</t>
-  </si>
-  <si>
-    <t>tmp43441</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -263,16 +278,16 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>台灣工銀大眾基 金</t>
-  </si>
-  <si>
-    <t>國泰全球貨幣基 金</t>
-  </si>
-  <si>
-    <t>台灣工銀證券 投信公</t>
-  </si>
-  <si>
-    <t>國泰證券投信 公司</t>
+    <t>台灣工銀大眾基金</t>
+  </si>
+  <si>
+    <t>國泰全球貨幣基金</t>
+  </si>
+  <si>
+    <t>台灣工銀證券投信公</t>
+  </si>
+  <si>
+    <t>國泰證券投信公司</t>
   </si>
   <si>
     <t>名</t>
@@ -290,22 +305,22 @@
     <t>人</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字晝及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總名</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字晝及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總名</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -332,7 +347,7 @@
     <t>南山人壽</t>
   </si>
   <si>
-    <t>國泰人壽 ,</t>
+    <t>國泰人壽</t>
   </si>
   <si>
     <t>全球104終身壽險甲型</t>
@@ -709,13 +724,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,31 +752,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>501</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2">
+        <v>665</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -779,25 +836,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -805,25 +862,25 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>109.41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -841,22 +898,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -864,22 +921,22 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>1986</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -897,22 +954,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -920,16 +977,16 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -941,16 +998,16 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -962,16 +1019,16 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -983,16 +1040,16 @@
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1004,16 +1061,16 @@
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1025,16 +1082,16 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1046,16 +1103,16 @@
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1067,16 +1124,16 @@
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1088,16 +1145,16 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1109,16 +1166,16 @@
         <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1130,16 +1187,16 @@
         <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1151,16 +1208,16 @@
         <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1172,16 +1229,16 @@
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1193,16 +1250,16 @@
         <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1214,16 +1271,16 @@
         <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1235,16 +1292,16 @@
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2">
         <v>29000</v>
@@ -1258,16 +1315,16 @@
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2">
         <v>6426.12</v>
@@ -1281,16 +1338,16 @@
         <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2">
         <v>25.14</v>
@@ -1304,16 +1361,16 @@
         <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2">
         <v>0.41</v>
@@ -1327,16 +1384,16 @@
         <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -1348,16 +1405,16 @@
         <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -1369,16 +1426,16 @@
         <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -1390,16 +1447,16 @@
         <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -1411,16 +1468,16 @@
         <v>66</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -1442,43 +1499,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1486,10 +1543,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>53493</v>
@@ -1498,28 +1555,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2">
         <v>534930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2">
         <v>665</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="N2" s="2">
         <v>72</v>
@@ -1530,10 +1587,10 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>5376</v>
@@ -1542,28 +1599,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2">
         <v>53760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2">
         <v>665</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="N3" s="2">
         <v>73</v>
@@ -1574,10 +1631,10 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>25000</v>
@@ -1586,28 +1643,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2">
         <v>250000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L4" s="2">
         <v>665</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="N4" s="2">
         <v>74</v>
@@ -1628,25 +1685,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1654,13 +1711,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>40191.2</v>
@@ -1669,7 +1726,7 @@
         <v>17.56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2">
         <v>705757.47</v>
@@ -1680,13 +1737,13 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>551258</v>
@@ -1695,7 +1752,7 @@
         <v>10.1217</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H3" s="2">
         <v>5579668.1</v>
@@ -1716,22 +1773,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1739,14 +1796,14 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1756,22 +1813,22 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1789,13 +1846,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1803,13 +1860,13 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1817,13 +1874,13 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1831,13 +1888,13 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1845,13 +1902,13 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1859,13 +1916,13 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1873,13 +1930,13 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1887,13 +1944,13 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1901,13 +1958,13 @@
         <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1915,13 +1972,13 @@
         <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
+++ b/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>全部</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>VOLVO</t>
@@ -875,38 +878,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1">
-        <v>1986</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2">
         <v>1986</v>
@@ -915,13 +939,34 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>665</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -939,13 +984,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -960,13 +1005,13 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -981,13 +1026,13 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1002,13 +1047,13 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1023,13 +1068,13 @@
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1044,13 +1089,13 @@
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1065,13 +1110,13 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1086,13 +1131,13 @@
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1107,13 +1152,13 @@
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1128,13 +1173,13 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
@@ -1149,13 +1194,13 @@
         <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -1170,13 +1215,13 @@
         <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1191,13 +1236,13 @@
         <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -1212,13 +1257,13 @@
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1233,13 +1278,13 @@
         <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1254,13 +1299,13 @@
         <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
@@ -1275,13 +1320,13 @@
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -1298,13 +1343,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
@@ -1321,13 +1366,13 @@
         <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
@@ -1344,13 +1389,13 @@
         <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
@@ -1367,13 +1412,13 @@
         <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>18</v>
@@ -1388,13 +1433,13 @@
         <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>18</v>
@@ -1409,16 +1454,16 @@
         <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -1430,16 +1475,16 @@
         <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -1451,16 +1496,16 @@
         <v>66</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -1488,13 +1533,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1526,7 +1571,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1538,13 +1583,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2">
         <v>534930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1570,7 +1615,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1582,13 +1627,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2">
         <v>53760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1614,7 +1659,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1626,13 +1671,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2">
         <v>250000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1668,13 +1713,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1">
         <v>40191.2</v>
@@ -1683,7 +1728,7 @@
         <v>17.56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1">
         <v>705757.47</v>
@@ -1694,13 +1739,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <v>40191.2</v>
@@ -1709,7 +1754,7 @@
         <v>17.56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2">
         <v>705757.47</v>
@@ -1720,13 +1765,13 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2">
         <v>551258</v>
@@ -1735,7 +1780,7 @@
         <v>10.1217</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2">
         <v>5579668.1</v>
@@ -1756,14 +1801,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1773,16 +1818,16 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1790,22 +1835,22 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1823,13 +1868,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1837,13 +1882,13 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1851,13 +1896,13 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1865,13 +1910,13 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1879,13 +1924,13 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1893,13 +1938,13 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1907,13 +1952,13 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1921,13 +1966,13 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1935,10 +1980,10 @@
         <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -1949,10 +1994,10 @@
         <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>

--- a/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
+++ b/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -107,6 +107,9 @@
     <t>全部</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -114,6 +117,9 @@
   </si>
   <si>
     <t>89年6月</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台北富邦商業銀行城中分行</t>
@@ -844,7 +850,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -889,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -930,7 +936,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>1986</v>
@@ -939,7 +945,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -948,7 +954,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -984,13 +990,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1005,13 +1011,13 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1026,13 +1032,13 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1047,13 +1053,13 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1068,13 +1074,13 @@
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1089,13 +1095,13 @@
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1110,13 +1116,13 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1131,13 +1137,13 @@
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1152,13 +1158,13 @@
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1173,13 +1179,13 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
@@ -1194,13 +1200,13 @@
         <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -1215,13 +1221,13 @@
         <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1236,13 +1242,13 @@
         <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -1257,13 +1263,13 @@
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1278,13 +1284,13 @@
         <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1299,13 +1305,13 @@
         <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
@@ -1320,13 +1326,13 @@
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -1343,13 +1349,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
@@ -1366,13 +1372,13 @@
         <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
@@ -1389,13 +1395,13 @@
         <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
@@ -1412,13 +1418,13 @@
         <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>18</v>
@@ -1433,13 +1439,13 @@
         <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>18</v>
@@ -1454,16 +1460,16 @@
         <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -1475,16 +1481,16 @@
         <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -1496,16 +1502,16 @@
         <v>66</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -1533,13 +1539,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1571,7 +1577,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1583,13 +1589,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2">
         <v>534930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1615,7 +1621,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1627,13 +1633,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2">
         <v>53760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1659,7 +1665,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1671,13 +1677,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2">
         <v>250000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1713,13 +1719,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1">
         <v>40191.2</v>
@@ -1728,7 +1734,7 @@
         <v>17.56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1">
         <v>705757.47</v>
@@ -1739,13 +1745,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>40191.2</v>
@@ -1754,7 +1760,7 @@
         <v>17.56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2">
         <v>705757.47</v>
@@ -1765,13 +1771,13 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2">
         <v>551258</v>
@@ -1780,7 +1786,7 @@
         <v>10.1217</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2">
         <v>5579668.1</v>
@@ -1801,14 +1807,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1818,16 +1824,16 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1835,22 +1841,22 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1868,13 +1874,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1882,13 +1888,13 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1896,13 +1902,13 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1910,13 +1916,13 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1924,13 +1930,13 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1938,13 +1944,13 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1952,13 +1958,13 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1966,13 +1972,13 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1980,10 +1986,10 @@
         <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -1994,10 +2000,10 @@
         <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>

--- a/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
+++ b/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -122,81 +122,90 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行城中分行</t>
   </si>
   <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行信託部（信託專戶）</t>
+  </si>
+  <si>
+    <t>第一商業銀行左營分行</t>
+  </si>
+  <si>
+    <t>陽信商業銀行立文分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司高雄新庄</t>
+  </si>
+  <si>
+    <t>大眾商業銀行大昌分行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行新生分行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行大和平分行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行右昌分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行城中分行</t>
+  </si>
+  <si>
+    <t>花旗(台灣)商業銀行臺北分行</t>
+  </si>
+  <si>
+    <t>花旗（台灣)商業銀行臺北分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司新庄仔郵局</t>
+  </si>
+  <si>
+    <t>臺灣銀行龍山分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行新竹分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司郵政儲金匯</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行信託部（信託專戶）</t>
-  </si>
-  <si>
-    <t>第一商業銀行左營分行</t>
-  </si>
-  <si>
-    <t>陽信商業銀行立文分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司高雄新庄</t>
-  </si>
-  <si>
-    <t>大眾商業銀行大昌分行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行新生分行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行大和平分行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行信義分行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行右昌分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行城中分行</t>
-  </si>
-  <si>
-    <t>花旗(台灣)商業銀行臺北分行</t>
-  </si>
-  <si>
-    <t>花旗（台灣)商業銀行臺北分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司新庄仔郵局</t>
-  </si>
-  <si>
-    <t>臺灣銀行龍山分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行新竹分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司郵政儲金匯</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -206,13 +215,13 @@
     <t>王崇儀</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>久津實業公司</t>
@@ -982,13 +991,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
@@ -999,523 +1008,1015 @@
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>270</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>665</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>665</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>842201</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>665</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>28339</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2">
+        <v>665</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>9206312</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2">
+        <v>665</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>15375</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2">
+        <v>665</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>85785</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2">
+        <v>665</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>8938</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2">
+        <v>665</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>27730</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2">
+        <v>665</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>721</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2">
+        <v>665</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>2186858</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="2">
+        <v>665</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>239738</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="2">
+        <v>665</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>1972</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="2">
+        <v>665</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2">
+        <v>136527</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="2">
+        <v>665</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="2">
         <v>56</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>136527</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>32929</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="2">
+        <v>665</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2">
+        <v>878410</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="2">
+        <v>665</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="2">
         <v>58</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="2">
-        <v>29000</v>
-      </c>
-      <c r="G17" s="2">
-        <v>878410</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2">
+        <v>194647.17</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="2">
+        <v>665</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2">
-        <v>6426.12</v>
-      </c>
-      <c r="G18" s="2">
-        <v>194647.17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>60</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="2">
-        <v>25.14</v>
-      </c>
-      <c r="G19" s="2">
         <v>802.22</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="2">
+        <v>665</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="G20" s="2">
         <v>16.66</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="2">
+        <v>665</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>129</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="2">
+        <v>665</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="F22" s="2">
+        <v>18</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2">
+        <v>665</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+        <v>63</v>
+      </c>
+      <c r="F23" s="2">
         <v>74785</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="2">
+        <v>665</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+        <v>63</v>
+      </c>
+      <c r="F24" s="2">
         <v>2725</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="2">
+        <v>665</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>66</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+        <v>63</v>
+      </c>
+      <c r="F25" s="2">
         <v>186820</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="2">
+        <v>665</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="2">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1539,13 +2040,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1577,7 +2078,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1589,13 +2090,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
         <v>534930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1621,7 +2122,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1633,13 +2134,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
         <v>53760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1665,7 +2166,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1677,13 +2178,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2">
         <v>250000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1719,13 +2220,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1">
         <v>40191.2</v>
@@ -1734,7 +2235,7 @@
         <v>17.56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1">
         <v>705757.47</v>
@@ -1745,13 +2246,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>40191.2</v>
@@ -1760,7 +2261,7 @@
         <v>17.56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2">
         <v>705757.47</v>
@@ -1771,13 +2272,13 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2">
         <v>551258</v>
@@ -1786,7 +2287,7 @@
         <v>10.1217</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2">
         <v>5579668.1</v>
@@ -1807,14 +2308,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1824,16 +2325,16 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1841,22 +2342,22 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1874,13 +2375,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1888,13 +2389,13 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1902,13 +2403,13 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1916,13 +2417,13 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1930,13 +2431,13 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1944,13 +2445,13 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1958,13 +2459,13 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1972,13 +2473,13 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1986,10 +2487,10 @@
         <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -2000,10 +2501,10 @@
         <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>

--- a/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
+++ b/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
@@ -13,15 +13,14 @@
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
-    <sheet name="其他有價證券" sheetId="7" r:id="rId7"/>
-    <sheet name="保險" sheetId="8" r:id="rId8"/>
+    <sheet name="保險" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -236,43 +235,22 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>台灣工銀大眾基金</t>
   </si>
   <si>
+    <t>國泰全球貨幣基金</t>
+  </si>
+  <si>
     <t>台灣工銀證券投信公</t>
   </si>
   <si>
-    <t>國泰全球貨幣基金</t>
-  </si>
-  <si>
     <t>國泰證券投信公司</t>
   </si>
   <si>
-    <t>(九）珠寶古董字晝及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總名</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
+    <t>fund</t>
   </si>
   <si>
     <t>全球人壽</t>
@@ -2212,47 +2190,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1">
-        <v>40191.2</v>
-      </c>
-      <c r="F1" s="1">
-        <v>17.56</v>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="1">
-        <v>705757.47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>40191.2</v>
@@ -2266,8 +2265,29 @@
       <c r="H2" s="2">
         <v>705757.47</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>665</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>85</v>
       </c>
@@ -2278,7 +2298,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2">
         <v>551258</v>
@@ -2291,6 +2311,27 @@
       </c>
       <c r="H3" s="2">
         <v>5579668.1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>665</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2299,73 +2340,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>91</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2375,10 +2349,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>63</v>
@@ -2389,10 +2363,10 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>63</v>
@@ -2403,10 +2377,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>63</v>
@@ -2417,10 +2391,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>63</v>
@@ -2431,10 +2405,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>63</v>
@@ -2445,10 +2419,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>63</v>
@@ -2459,10 +2433,10 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>63</v>
@@ -2473,10 +2447,10 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>63</v>
@@ -2487,10 +2461,10 @@
         <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -2501,10 +2475,10 @@
         <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>

--- a/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
+++ b/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -253,21 +253,24 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>全球人壽</t>
   </si>
   <si>
+    <t>幸福人壽</t>
+  </si>
+  <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
     <t>全球104終身壽險甲型</t>
   </si>
   <si>
-    <t>幸福人壽</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
     <t>全球104终身壽險甲型</t>
   </si>
   <si>
@@ -281,6 +284,9 @@
   </si>
   <si>
     <t>富貴保本投資鏈結壽</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2341,94 +2347,220 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>665</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>665</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2">
+        <v>665</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2">
+        <v>665</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2">
+        <v>665</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>103</v>
       </c>
@@ -2436,13 +2568,34 @@
         <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2">
+        <v>665</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>104</v>
       </c>
@@ -2450,13 +2603,34 @@
         <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2">
+        <v>665</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>105</v>
       </c>
@@ -2464,13 +2638,34 @@
         <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2">
+        <v>665</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>106</v>
       </c>
@@ -2478,10 +2673,31 @@
         <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2">
+        <v>665</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
+++ b/legislator/property/output/normal/黃昭順_2011-12-26_財產申報表_tmp43441.xlsx
@@ -14,13 +14,14 @@
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
     <sheet name="保險" sheetId="7" r:id="rId7"/>
+    <sheet name="債務" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -287,6 +288,57 @@
   </si>
   <si>
     <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>房屋貸款</t>
+  </si>
+  <si>
+    <t>貸款</t>
+  </si>
+  <si>
+    <t>大商業眾銀行新生分行臺北市中正區忠孝</t>
+  </si>
+  <si>
+    <t>幸福人壽保險股份有限公司臺北市中正區</t>
+  </si>
+  <si>
+    <t>94年01月06日</t>
+  </si>
+  <si>
+    <t>95年12月25日</t>
+  </si>
+  <si>
+    <t>96年04月12曰</t>
+  </si>
+  <si>
+    <t>96年05月28日</t>
+  </si>
+  <si>
+    <t>96年12月11曰</t>
+  </si>
+  <si>
+    <t>100年12月08日</t>
+  </si>
+  <si>
+    <t>100年12月30日</t>
+  </si>
+  <si>
+    <t>購屋貸款</t>
+  </si>
+  <si>
+    <t>般借款</t>
+  </si>
+  <si>
+    <t>一般借款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2703,4 +2755,366 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1119648</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>665</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>117</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="2">
+        <v>600000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>665</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>118</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1060000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2">
+        <v>665</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>119</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="2">
+        <v>500405</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2">
+        <v>665</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>120</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="2">
+        <v>800820</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2">
+        <v>665</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>121</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="2">
+        <v>500131</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2">
+        <v>665</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>122</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="2">
+        <v>300000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="2">
+        <v>665</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="2">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>